--- a/results/scale2upTN.xlsx
+++ b/results/scale2upTN.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Sequence 10</t>
+  </si>
+  <si>
+    <t>Lasso</t>
   </si>
 </sst>
 </file>
@@ -407,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,7 +460,9 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -487,7 +492,9 @@
       <c r="F3" s="1">
         <v>32</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>46</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>26</v>
@@ -515,7 +522,9 @@
       <c r="F4" s="1">
         <v>38</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>38</v>
@@ -543,7 +552,9 @@
       <c r="F5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>46</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <v>54</v>
@@ -666,7 +677,9 @@
       <c r="F10" s="1">
         <v>24</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>44</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>18</v>
@@ -699,7 +712,9 @@
       <c r="F11" s="1">
         <v>36</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>44</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>30</v>
@@ -732,7 +747,9 @@
       <c r="F12" s="1">
         <v>44</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>48</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>44</v>
@@ -864,7 +881,9 @@
       <c r="F16" s="1">
         <v>30</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
         <v>30</v>
@@ -899,7 +918,9 @@
       <c r="F17" s="1">
         <v>40</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>48</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
         <v>34</v>
@@ -934,7 +955,9 @@
       <c r="F18" s="1">
         <v>54</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>54</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
         <v>44</v>
@@ -1066,7 +1089,9 @@
       <c r="F23" s="1">
         <v>24</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>48</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
         <v>22</v>
@@ -1099,7 +1124,9 @@
       <c r="F24" s="1">
         <v>28</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>44</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>26</v>
@@ -1132,7 +1159,9 @@
       <c r="F25" s="1">
         <v>46</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>46</v>
@@ -1285,7 +1314,9 @@
       <c r="F31" s="1">
         <v>24</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>46</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>24</v>
@@ -1320,7 +1351,9 @@
       <c r="F32" s="1">
         <v>32</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>48</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>30</v>
@@ -1355,7 +1388,9 @@
       <c r="F33" s="1">
         <v>50</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>48</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>50</v>

--- a/results/scale2upTN.xlsx
+++ b/results/scale2upTN.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1520,7 +1520,9 @@
       <c r="F38" s="1">
         <v>36</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>44</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
         <v>24</v>
@@ -1552,7 +1554,9 @@
       <c r="F39" s="1">
         <v>28</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>46</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
         <v>32</v>
@@ -1584,7 +1588,9 @@
       <c r="F40" s="1">
         <v>42</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>52</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
         <v>36</v>
@@ -1708,7 +1714,9 @@
       <c r="F45" s="1">
         <v>34</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>42</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
         <v>24</v>
@@ -1740,7 +1748,9 @@
       <c r="F46" s="1">
         <v>32</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>44</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
         <v>36</v>
@@ -1772,7 +1782,9 @@
       <c r="F47" s="1">
         <v>42</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>48</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
         <v>46</v>
@@ -1896,7 +1908,9 @@
       <c r="F52" s="1">
         <v>28</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>52</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1">
         <v>20</v>
@@ -1928,7 +1942,9 @@
       <c r="F53" s="1">
         <v>42</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1">
+        <v>52</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1">
         <v>42</v>
@@ -1960,7 +1976,9 @@
       <c r="F54" s="1">
         <v>52</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>56</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1">
         <v>50</v>
@@ -2084,7 +2102,9 @@
       <c r="F59" s="1">
         <v>30</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>44</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1">
         <v>14</v>
@@ -2116,7 +2136,9 @@
       <c r="F60" s="1">
         <v>28</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>42</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
         <v>32</v>
@@ -2148,7 +2170,9 @@
       <c r="F61" s="1">
         <v>40</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>42</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
         <v>42</v>
@@ -2296,7 +2320,9 @@
       <c r="F67" s="1">
         <v>22</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>44</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1">
         <v>30</v>
@@ -2330,7 +2356,9 @@
       <c r="F68" s="1">
         <v>36</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>50</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1">
         <v>36</v>
@@ -2364,7 +2392,9 @@
       <c r="F69" s="1">
         <v>52</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>52</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1">
         <v>46</v>
